--- a/Code/Results/Cases/Case_7_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_20/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.325037538464301</v>
+        <v>1.030042432991905</v>
       </c>
       <c r="C2">
-        <v>0.5165697066416612</v>
+        <v>0.144613069914584</v>
       </c>
       <c r="D2">
-        <v>0.04067239909548448</v>
+        <v>0.2023492885988105</v>
       </c>
       <c r="E2">
-        <v>0.1163725362561223</v>
+        <v>0.1695120153851661</v>
       </c>
       <c r="F2">
-        <v>2.49112878205591</v>
+        <v>0.8853643907976121</v>
       </c>
       <c r="G2">
-        <v>0.00081185621082929</v>
+        <v>0.0008193306066069729</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2250112517549212</v>
+        <v>0.1863579182174178</v>
       </c>
       <c r="K2">
-        <v>0.6353002292336711</v>
+        <v>1.079601545594301</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.687583374896491</v>
+        <v>2.059784331988027</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.012798068922507</v>
+        <v>0.8945782418473698</v>
       </c>
       <c r="C3">
-        <v>0.4456404031496106</v>
+        <v>0.1283481403929869</v>
       </c>
       <c r="D3">
-        <v>0.03575210212343194</v>
+        <v>0.1776891851469173</v>
       </c>
       <c r="E3">
-        <v>0.1033316084244156</v>
+        <v>0.1505089720455999</v>
       </c>
       <c r="F3">
-        <v>2.289832282359583</v>
+        <v>0.8569129390835997</v>
       </c>
       <c r="G3">
-        <v>0.0008201729573951635</v>
+        <v>0.0008234787262554641</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2005957638261009</v>
+        <v>0.1671456260662012</v>
       </c>
       <c r="K3">
-        <v>0.549235311794277</v>
+        <v>0.9386888776836031</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.556064125333748</v>
+        <v>2.041282395459149</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.823902503533105</v>
+        <v>0.8116523557932283</v>
       </c>
       <c r="C4">
-        <v>0.4026531351396443</v>
+        <v>0.1183555191668972</v>
       </c>
       <c r="D4">
-        <v>0.03275385988508361</v>
+        <v>0.162660105972904</v>
       </c>
       <c r="E4">
-        <v>0.09550554498199304</v>
+        <v>0.1389999912743392</v>
       </c>
       <c r="F4">
-        <v>2.171364990116629</v>
+        <v>0.8411122285869439</v>
       </c>
       <c r="G4">
-        <v>0.0008254119807204017</v>
+        <v>0.0008261086163735942</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1860284943573873</v>
+        <v>0.1555858694184096</v>
       </c>
       <c r="K4">
-        <v>0.4971432642291944</v>
+        <v>0.8523311288225841</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.478905603512644</v>
+        <v>2.034275430197084</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.74753803658578</v>
+        <v>0.7779080154398059</v>
       </c>
       <c r="C5">
-        <v>0.3852547724420674</v>
+        <v>0.1142806550603694</v>
       </c>
       <c r="D5">
-        <v>0.03153714006435848</v>
+        <v>0.1565608972251056</v>
       </c>
       <c r="E5">
-        <v>0.09235713043837634</v>
+        <v>0.1343465808314086</v>
       </c>
       <c r="F5">
-        <v>2.124259089140963</v>
+        <v>0.8350730709690097</v>
       </c>
       <c r="G5">
-        <v>0.0008275818640470256</v>
+        <v>0.0008272015670320663</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1801875962043979</v>
+        <v>0.1509300939111142</v>
       </c>
       <c r="K5">
-        <v>0.4760775904984058</v>
+        <v>0.8171668189937691</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.448283176812524</v>
+        <v>2.032466883917621</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.734892051328615</v>
+        <v>0.7723073328505166</v>
       </c>
       <c r="C6">
-        <v>0.3823723749209194</v>
+        <v>0.1136038219334239</v>
       </c>
       <c r="D6">
-        <v>0.03133539413937569</v>
+        <v>0.1555495700015967</v>
       </c>
       <c r="E6">
-        <v>0.0918366690027419</v>
+        <v>0.1335760002286221</v>
       </c>
       <c r="F6">
-        <v>2.116504577533505</v>
+        <v>0.8340938573910037</v>
       </c>
       <c r="G6">
-        <v>0.0008279443267588116</v>
+        <v>0.0008273843453502075</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1792231699963764</v>
+        <v>0.1501601932028933</v>
       </c>
       <c r="K6">
-        <v>0.4725887093903367</v>
+        <v>0.8113290641632886</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.443245573114567</v>
+        <v>2.032228450822629</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.822870270194443</v>
+        <v>0.811197089014172</v>
       </c>
       <c r="C7">
-        <v>0.4024180398976114</v>
+        <v>0.1183005770862025</v>
       </c>
       <c r="D7">
-        <v>0.03273743098988291</v>
+        <v>0.162577751445383</v>
       </c>
       <c r="E7">
-        <v>0.09546292530554013</v>
+        <v>0.1389370899301881</v>
       </c>
       <c r="F7">
-        <v>2.170725114949121</v>
+        <v>0.8410291892453756</v>
       </c>
       <c r="G7">
-        <v>0.0008254411009672546</v>
+        <v>0.0008261232697628284</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1859493499130949</v>
+        <v>0.1555228635313668</v>
       </c>
       <c r="K7">
-        <v>0.4968585420537508</v>
+        <v>0.8518567983331593</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.478489403010769</v>
+        <v>2.034246862285841</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.216730616203108</v>
+        <v>0.9832737439914752</v>
       </c>
       <c r="C8">
-        <v>0.4919821441944805</v>
+        <v>0.1390053238189353</v>
       </c>
       <c r="D8">
-        <v>0.03897072251362488</v>
+        <v>0.1938213197238099</v>
       </c>
       <c r="E8">
-        <v>0.1118354268520605</v>
+        <v>0.1629246773131356</v>
       </c>
       <c r="F8">
-        <v>2.420582049494357</v>
+        <v>0.8751957580205527</v>
       </c>
       <c r="G8">
-        <v>0.000814697338947476</v>
+        <v>0.0008207439109896265</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2164977410359796</v>
+        <v>0.1796815538576055</v>
       </c>
       <c r="K8">
-        <v>0.6054519880701221</v>
+        <v>1.030972338686269</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.641436844004616</v>
+        <v>2.052471780541993</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.016368181738358</v>
+        <v>1.323393236422334</v>
       </c>
       <c r="C9">
-        <v>0.6732234121805618</v>
+        <v>0.1796261323913626</v>
       </c>
       <c r="D9">
-        <v>0.05140945092231419</v>
+        <v>0.256126765487835</v>
       </c>
       <c r="E9">
-        <v>0.1456187482446722</v>
+        <v>0.2113893856363873</v>
       </c>
       <c r="F9">
-        <v>2.957219280437073</v>
+        <v>0.956385840798518</v>
       </c>
       <c r="G9">
-        <v>0.0007945996383579032</v>
+        <v>0.0008108340420444499</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2803294358949415</v>
+        <v>0.2291563563316998</v>
       </c>
       <c r="K9">
-        <v>0.8257260774139894</v>
+        <v>1.384197101111567</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.993680085024792</v>
+        <v>2.125039381318913</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.628193925738913</v>
+        <v>1.575969667345817</v>
       </c>
       <c r="C10">
-        <v>0.8115930756941054</v>
+        <v>0.2095829924563049</v>
       </c>
       <c r="D10">
-        <v>0.06073424093329294</v>
+        <v>0.3027543953264598</v>
       </c>
       <c r="E10">
-        <v>0.1718380416080478</v>
+        <v>0.2481106433168847</v>
       </c>
       <c r="F10">
-        <v>3.389270463240791</v>
+        <v>1.026096308908379</v>
       </c>
       <c r="G10">
-        <v>0.000780300225333267</v>
+        <v>0.0008039147831634733</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3305026763660379</v>
+        <v>0.2671170295980403</v>
       </c>
       <c r="K10">
-        <v>0.9941588989680241</v>
+        <v>1.645961851181113</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.278948353009397</v>
+        <v>2.204194686265311</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.913807363716728</v>
+        <v>1.691712813455325</v>
       </c>
       <c r="C11">
-        <v>0.87614085599688</v>
+        <v>0.2232603861677092</v>
       </c>
       <c r="D11">
-        <v>0.06503108959244486</v>
+        <v>0.324204153164743</v>
       </c>
       <c r="E11">
-        <v>0.1841669272613231</v>
+        <v>0.2651168528626258</v>
       </c>
       <c r="F11">
-        <v>3.596437766184039</v>
+        <v>1.060331126428352</v>
       </c>
       <c r="G11">
-        <v>0.0007738641918137365</v>
+        <v>0.00080083891615499</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3542676661602684</v>
+        <v>0.2848157655207615</v>
       </c>
       <c r="K11">
-        <v>1.072769427108696</v>
+        <v>1.765786574618915</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.416163168415039</v>
+        <v>2.246626421575513</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.023202340467492</v>
+        <v>1.735685787245785</v>
       </c>
       <c r="C12">
-        <v>0.900859312864668</v>
+        <v>0.228449026754376</v>
       </c>
       <c r="D12">
-        <v>0.06666747021162678</v>
+        <v>0.3323655762082325</v>
       </c>
       <c r="E12">
-        <v>0.188902682101201</v>
+        <v>0.2716052497869867</v>
       </c>
       <c r="F12">
-        <v>3.676647496669261</v>
+        <v>1.073688106327936</v>
       </c>
       <c r="G12">
-        <v>0.0007714338608633725</v>
+        <v>0.0007996839012894446</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3634242395559255</v>
+        <v>0.2915867927813167</v>
       </c>
       <c r="K12">
-        <v>1.102876711427328</v>
+        <v>1.811290773193946</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.469356813754743</v>
+        <v>2.263691097366177</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.999583732034012</v>
+        <v>1.726208665905148</v>
       </c>
       <c r="C13">
-        <v>0.8955227049731604</v>
+        <v>0.2273311101604207</v>
       </c>
       <c r="D13">
-        <v>0.06631461108440106</v>
+        <v>0.3306060630330592</v>
       </c>
       <c r="E13">
-        <v>0.1878796073415074</v>
+        <v>0.2702056134464215</v>
       </c>
       <c r="F13">
-        <v>3.659290583983989</v>
+        <v>1.070793458242633</v>
       </c>
       <c r="G13">
-        <v>0.0007719570241640916</v>
+        <v>0.0007999322302968794</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3614448296276862</v>
+        <v>0.2901253487788438</v>
       </c>
       <c r="K13">
-        <v>1.0963765596276</v>
+        <v>1.801484518643349</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.457842923298543</v>
+        <v>2.259970363789876</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.92278132867591</v>
+        <v>1.695327486821498</v>
       </c>
       <c r="C14">
-        <v>0.8781686531501407</v>
+        <v>0.2236870592973474</v>
       </c>
       <c r="D14">
-        <v>0.06516552166142731</v>
+        <v>0.324874792139056</v>
       </c>
       <c r="E14">
-        <v>0.1845551384847468</v>
+        <v>0.2656496539597342</v>
       </c>
       <c r="F14">
-        <v>3.602999954138596</v>
+        <v>1.061421956027843</v>
       </c>
       <c r="G14">
-        <v>0.0007736641286173564</v>
+        <v>0.0008007437003941866</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3550176939858574</v>
+        <v>0.2853713989386648</v>
       </c>
       <c r="K14">
-        <v>1.075239243581976</v>
+        <v>1.769527512369649</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.420513710921256</v>
+        <v>2.248009929494771</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.875905151398285</v>
+        <v>1.676431252613469</v>
       </c>
       <c r="C15">
-        <v>0.8675761370211319</v>
+        <v>0.221456251727119</v>
       </c>
       <c r="D15">
-        <v>0.06446292013195176</v>
+        <v>0.3213694255584159</v>
       </c>
       <c r="E15">
-        <v>0.1825278384871893</v>
+        <v>0.2628654748832915</v>
       </c>
       <c r="F15">
-        <v>3.568756943989115</v>
+        <v>1.055733754325018</v>
       </c>
       <c r="G15">
-        <v>0.000774710574921067</v>
+        <v>0.0008012420013770453</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3511020750490417</v>
+        <v>0.2824686581373044</v>
       </c>
       <c r="K15">
-        <v>1.062337898652544</v>
+        <v>1.749970422949673</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.397814322372923</v>
+        <v>2.240815878641456</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.609690872299211</v>
+        <v>1.568424428741878</v>
       </c>
       <c r="C16">
-        <v>0.8074106946048119</v>
+        <v>0.2086903246659944</v>
       </c>
       <c r="D16">
-        <v>0.06045464931541034</v>
+        <v>0.3013577862809456</v>
       </c>
       <c r="E16">
-        <v>0.1710411701592349</v>
+        <v>0.2470057469530644</v>
       </c>
       <c r="F16">
-        <v>3.375964536648524</v>
+        <v>1.023912283663194</v>
       </c>
       <c r="G16">
-        <v>0.0007807219691362016</v>
+        <v>0.0008041171942764783</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.328970324669541</v>
+        <v>0.2659696220953265</v>
       </c>
       <c r="K16">
-        <v>0.9890659274489195</v>
+        <v>1.638147873141946</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.270144276819011</v>
+        <v>2.201557047067297</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.448372416099801</v>
+        <v>1.502397297187315</v>
       </c>
       <c r="C17">
-        <v>0.7709418352851287</v>
+        <v>0.2008730784172457</v>
       </c>
       <c r="D17">
-        <v>0.05801068836961321</v>
+        <v>0.2891455431817036</v>
       </c>
       <c r="E17">
-        <v>0.1641035836440921</v>
+        <v>0.2373570937956231</v>
       </c>
       <c r="F17">
-        <v>3.260569604452996</v>
+        <v>1.005057854104948</v>
       </c>
       <c r="G17">
-        <v>0.0007844253517822583</v>
+        <v>0.0008058990145938448</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3156489410101813</v>
+        <v>0.2559630295276492</v>
       </c>
       <c r="K17">
-        <v>0.944661096800715</v>
+        <v>1.569754572005166</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.19383879855117</v>
+        <v>2.179168494259045</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.356259722095729</v>
+        <v>1.4644983399061</v>
       </c>
       <c r="C18">
-        <v>0.7501137221394742</v>
+        <v>0.1963813604370301</v>
       </c>
       <c r="D18">
-        <v>0.05661006807251567</v>
+        <v>0.282143551553645</v>
       </c>
       <c r="E18">
-        <v>0.1601504414352561</v>
+        <v>0.2318354939229579</v>
       </c>
       <c r="F18">
-        <v>3.195181981932365</v>
+        <v>0.9944488434966274</v>
       </c>
       <c r="G18">
-        <v>0.0007865621229685636</v>
+        <v>0.0008069306589867828</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3080739204281997</v>
+        <v>0.2502475463322895</v>
       </c>
       <c r="K18">
-        <v>0.9193043116659112</v>
+        <v>1.530485424574465</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.150639711187651</v>
+        <v>2.166891126320166</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.325182195713182</v>
+        <v>1.451679173611979</v>
       </c>
       <c r="C19">
-        <v>0.7430857920511187</v>
+        <v>0.1948612620948182</v>
       </c>
       <c r="D19">
-        <v>0.05613667646213827</v>
+        <v>0.2797764715266453</v>
       </c>
       <c r="E19">
-        <v>0.1588180957648007</v>
+        <v>0.229970641858948</v>
       </c>
       <c r="F19">
-        <v>3.173205365911258</v>
+        <v>0.9908963892326454</v>
       </c>
       <c r="G19">
-        <v>0.000787286831272421</v>
+        <v>0.0008072811387030273</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3055234832593783</v>
+        <v>0.2483190538675188</v>
       </c>
       <c r="K19">
-        <v>0.9107489873804724</v>
+        <v>1.517200757794427</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.136127104106237</v>
+        <v>2.162835124188518</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.465474042784763</v>
+        <v>1.509417760339687</v>
       </c>
       <c r="C20">
-        <v>0.7748084026630124</v>
+        <v>0.201704751262568</v>
       </c>
       <c r="D20">
-        <v>0.05827031703856278</v>
+        <v>0.2904432311357255</v>
       </c>
       <c r="E20">
-        <v>0.1648381905755656</v>
+        <v>0.2383812701808523</v>
       </c>
       <c r="F20">
-        <v>3.272750117667243</v>
+        <v>1.00704034950418</v>
       </c>
       <c r="G20">
-        <v>0.0007840304494703979</v>
+        <v>0.0008057086381566643</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3170578619875215</v>
+        <v>0.2570240547166804</v>
       </c>
       <c r="K20">
-        <v>0.9493686928337297</v>
+        <v>1.577027875307351</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.201889144279392</v>
+        <v>2.181489191522701</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.94530476856545</v>
+        <v>1.704393957139757</v>
       </c>
       <c r="C21">
-        <v>0.883258087078957</v>
+        <v>0.2247571347894564</v>
       </c>
       <c r="D21">
-        <v>0.06550277412269168</v>
+        <v>0.3265571125574382</v>
       </c>
       <c r="E21">
-        <v>0.1855297146110644</v>
+        <v>0.2669864900044203</v>
       </c>
       <c r="F21">
-        <v>3.619484104268082</v>
+        <v>1.064163675808814</v>
       </c>
       <c r="G21">
-        <v>0.0007731625508493934</v>
+        <v>0.0008005050920359517</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.356901040547001</v>
+        <v>0.2867658205809107</v>
       </c>
       <c r="K21">
-        <v>1.081438120851615</v>
+        <v>1.778910371433966</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.431443323671999</v>
+        <v>2.251495339520233</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.266234157831946</v>
+        <v>1.832670440111826</v>
       </c>
       <c r="C22">
-        <v>0.9557685053915179</v>
+        <v>0.2398785837745834</v>
       </c>
       <c r="D22">
-        <v>0.07028432856583322</v>
+        <v>0.350388521298072</v>
       </c>
       <c r="E22">
-        <v>0.1994490589377733</v>
+        <v>0.2859671133197494</v>
       </c>
       <c r="F22">
-        <v>3.856484878630908</v>
+        <v>1.103803438226251</v>
       </c>
       <c r="G22">
-        <v>0.0007660979917121367</v>
+        <v>0.0007971608086118083</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3838701369241875</v>
+        <v>0.3066090475400074</v>
       </c>
       <c r="K22">
-        <v>1.169760307369145</v>
+        <v>1.91161659533995</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.588751675561227</v>
+        <v>2.303095888890255</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.094207067417358</v>
+        <v>1.764121500650106</v>
       </c>
       <c r="C23">
-        <v>0.9169023287161053</v>
+        <v>0.2318021591961639</v>
       </c>
       <c r="D23">
-        <v>0.06772681830796046</v>
+        <v>0.337646711000005</v>
       </c>
       <c r="E23">
-        <v>0.1919803647911635</v>
+        <v>0.2758088710872784</v>
       </c>
       <c r="F23">
-        <v>3.72895717499506</v>
+        <v>1.082425345933999</v>
       </c>
       <c r="G23">
-        <v>0.0007698660952221541</v>
+        <v>0.0007989407401217497</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3693831144366442</v>
+        <v>0.2959787951002397</v>
       </c>
       <c r="K23">
-        <v>1.122417921632191</v>
+        <v>1.840711179061003</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.504067185228621</v>
+        <v>2.274995066849868</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.457740444671117</v>
+        <v>1.506243620843122</v>
       </c>
       <c r="C24">
-        <v>0.7730599000428242</v>
+        <v>0.2013287442761111</v>
       </c>
       <c r="D24">
-        <v>0.05815292517083037</v>
+        <v>0.2898564876033163</v>
       </c>
       <c r="E24">
-        <v>0.1645059653042011</v>
+        <v>0.2379181608728089</v>
       </c>
       <c r="F24">
-        <v>3.267240351843753</v>
+        <v>1.006143347158371</v>
       </c>
       <c r="G24">
-        <v>0.0007842089607791397</v>
+        <v>0.0008057946847481943</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3164206299763066</v>
+        <v>0.2565442491363115</v>
       </c>
       <c r="K24">
-        <v>0.9472398563943614</v>
+        <v>1.573739457433163</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.198247508254013</v>
+        <v>2.180438159225332</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.796383476251833</v>
+        <v>1.230990516493733</v>
       </c>
       <c r="C25">
-        <v>0.6234205591212003</v>
+        <v>0.1686251388223923</v>
       </c>
       <c r="D25">
-        <v>0.04801615231322387</v>
+        <v>0.2391386912838271</v>
       </c>
       <c r="E25">
-        <v>0.1362636993364816</v>
+        <v>0.1981014852631944</v>
       </c>
       <c r="F25">
-        <v>2.80614949062084</v>
+        <v>0.9327628632009066</v>
       </c>
       <c r="G25">
-        <v>0.0007999447997673012</v>
+        <v>0.0008134493099666464</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2625559989837711</v>
+        <v>0.2155144661614656</v>
       </c>
       <c r="K25">
-        <v>0.7651470202599455</v>
+        <v>1.288325329977624</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.894258138339694</v>
+        <v>2.101129279309134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.030042432991905</v>
+        <v>1.03395963603171</v>
       </c>
       <c r="C2">
-        <v>0.144613069914584</v>
+        <v>0.1730234393756405</v>
       </c>
       <c r="D2">
-        <v>0.2023492885988105</v>
+        <v>0.2803945604527485</v>
       </c>
       <c r="E2">
-        <v>0.1695120153851661</v>
+        <v>0.2096843506623429</v>
       </c>
       <c r="F2">
-        <v>0.8853643907976121</v>
+        <v>0.599292176610156</v>
       </c>
       <c r="G2">
-        <v>0.0008193306066069729</v>
+        <v>0.29169222705778</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.726455097336384E-06</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1863579182174178</v>
+        <v>0.281685154968585</v>
       </c>
       <c r="K2">
-        <v>1.079601545594301</v>
+        <v>0.2286859050796828</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.212907264588182</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.141538701583045</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.059784331988027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.1558500692975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8945782418473698</v>
+        <v>0.9027541372876442</v>
       </c>
       <c r="C3">
-        <v>0.1283481403929869</v>
+        <v>0.1528847258760635</v>
       </c>
       <c r="D3">
-        <v>0.1776891851469173</v>
+        <v>0.2482369690883104</v>
       </c>
       <c r="E3">
-        <v>0.1505089720455999</v>
+        <v>0.1866425012709385</v>
       </c>
       <c r="F3">
-        <v>0.8569129390835997</v>
+        <v>0.5789906427453033</v>
       </c>
       <c r="G3">
-        <v>0.0008234787262554641</v>
+        <v>0.2882223002016318</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000271360601361792</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1671456260662012</v>
+        <v>0.2847844944453826</v>
       </c>
       <c r="K3">
-        <v>0.9386888776836031</v>
+        <v>0.2364243745925805</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1903267282072889</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9985960212973453</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.041282395459149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.154689755339973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8116523557932283</v>
+        <v>0.822063862390479</v>
       </c>
       <c r="C4">
-        <v>0.1183555191668972</v>
+        <v>0.1404999658464874</v>
       </c>
       <c r="D4">
-        <v>0.162660105972904</v>
+        <v>0.2285027761414113</v>
       </c>
       <c r="E4">
-        <v>0.1389999912743392</v>
+        <v>0.1724885878189752</v>
       </c>
       <c r="F4">
-        <v>0.8411122285869439</v>
+        <v>0.5672106536662369</v>
       </c>
       <c r="G4">
-        <v>0.0008261086163735942</v>
+        <v>0.2866497013135358</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0006239665499589986</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1555858694184096</v>
+        <v>0.2870471023927408</v>
       </c>
       <c r="K4">
-        <v>0.8523311288225841</v>
+        <v>0.2416167416537256</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1764429510871466</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9106725103635824</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.034275430197084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.155905744391688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7779080154398059</v>
+        <v>0.7891442978337579</v>
       </c>
       <c r="C5">
-        <v>0.1142806550603694</v>
+        <v>0.1354475037471019</v>
       </c>
       <c r="D5">
-        <v>0.1565608972251056</v>
+        <v>0.220462040999422</v>
       </c>
       <c r="E5">
-        <v>0.1343465808314086</v>
+        <v>0.166717788333699</v>
       </c>
       <c r="F5">
-        <v>0.8350730709690097</v>
+        <v>0.562575564914809</v>
       </c>
       <c r="G5">
-        <v>0.0008272015670320663</v>
+        <v>0.286143391868066</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0008136072837450214</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1509300939111142</v>
+        <v>0.288057047391483</v>
       </c>
       <c r="K5">
-        <v>0.8171668189937691</v>
+        <v>0.2438401425620054</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1707787195231987</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8747983981683092</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.032466883917621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.156868702069247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7723073328505166</v>
+        <v>0.7836756162435563</v>
       </c>
       <c r="C6">
-        <v>0.1136038219334239</v>
+        <v>0.1346081912390957</v>
       </c>
       <c r="D6">
-        <v>0.1555495700015967</v>
+        <v>0.2191269052756297</v>
       </c>
       <c r="E6">
-        <v>0.1335760002286221</v>
+        <v>0.1657593319093564</v>
       </c>
       <c r="F6">
-        <v>0.8340938573910037</v>
+        <v>0.5618157004087792</v>
       </c>
       <c r="G6">
-        <v>0.0008273843453502075</v>
+        <v>0.2860672808035218</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.000847805796321488</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1501601932028933</v>
+        <v>0.2882299861338282</v>
       </c>
       <c r="K6">
-        <v>0.8113290641632886</v>
+        <v>0.2442157302225425</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1698377400151827</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8688386894344262</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.032228450822629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.157056333202661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.811197089014172</v>
+        <v>0.8216200563794871</v>
       </c>
       <c r="C7">
-        <v>0.1183005770862025</v>
+        <v>0.1404318499808852</v>
       </c>
       <c r="D7">
-        <v>0.162577751445383</v>
+        <v>0.2283943335216776</v>
       </c>
       <c r="E7">
-        <v>0.1389370899301881</v>
+        <v>0.1724107746440779</v>
       </c>
       <c r="F7">
-        <v>0.8410291892453756</v>
+        <v>0.5671474827339011</v>
       </c>
       <c r="G7">
-        <v>0.0008261232697628284</v>
+        <v>0.2866423357710843</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0006263410717011197</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1555228635313668</v>
+        <v>0.2870603701521048</v>
       </c>
       <c r="K7">
-        <v>0.8518567983331593</v>
+        <v>0.2416462964851522</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1763665896420008</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9101888867446917</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.034246862285841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.155916861190548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9832737439914752</v>
+        <v>0.9887436936163567</v>
       </c>
       <c r="C8">
-        <v>0.1390053238189353</v>
+        <v>0.1660832376463617</v>
       </c>
       <c r="D8">
-        <v>0.1938213197238099</v>
+        <v>0.2693034179464178</v>
       </c>
       <c r="E8">
-        <v>0.1629246773131356</v>
+        <v>0.2017399099674506</v>
       </c>
       <c r="F8">
-        <v>0.8751957580205527</v>
+        <v>0.5921457139843511</v>
       </c>
       <c r="G8">
-        <v>0.0008207439109896265</v>
+        <v>0.2903764571662677</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.867909674028837E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1796815538576055</v>
+        <v>0.282677631990218</v>
       </c>
       <c r="K8">
-        <v>1.030972338686269</v>
+        <v>0.231260533991561</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2051244743680343</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.092281119300139</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.052471780541993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.15503901984421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.323393236422334</v>
+        <v>1.315704676093105</v>
       </c>
       <c r="C9">
-        <v>0.1796261323913626</v>
+        <v>0.2162657177438092</v>
       </c>
       <c r="D9">
-        <v>0.256126765487835</v>
+        <v>0.3496897138118271</v>
       </c>
       <c r="E9">
-        <v>0.2113893856363873</v>
+        <v>0.2592753677552437</v>
       </c>
       <c r="F9">
-        <v>0.956385840798518</v>
+        <v>0.6469331349113432</v>
       </c>
       <c r="G9">
-        <v>0.0008108340420444499</v>
+        <v>0.3023969602089096</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0005763709779662562</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2291563563316998</v>
+        <v>0.2770541063503629</v>
       </c>
       <c r="K9">
-        <v>1.384197101111567</v>
+        <v>0.2145511030218294</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2614454493660645</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.448399503910593</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.125039381318913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.169439915079138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.575969667345817</v>
+        <v>1.556237361031094</v>
       </c>
       <c r="C10">
-        <v>0.2095829924563049</v>
+        <v>0.2520923196616707</v>
       </c>
       <c r="D10">
-        <v>0.3027543953264598</v>
+        <v>0.4005793183421247</v>
       </c>
       <c r="E10">
-        <v>0.2481106433168847</v>
+        <v>0.290747542284457</v>
       </c>
       <c r="F10">
-        <v>1.026096308908379</v>
+        <v>0.6802184689794188</v>
       </c>
       <c r="G10">
-        <v>0.0008039147831634733</v>
+        <v>0.3094971568717355</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002165194113507685</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2671170295980403</v>
+        <v>0.2723998754937043</v>
       </c>
       <c r="K10">
-        <v>1.645961851181113</v>
+        <v>0.2024916564154324</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2885322740402501</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.708642531612043</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.204194686265311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.175215632859178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.691712813455325</v>
+        <v>1.669208909648404</v>
       </c>
       <c r="C11">
-        <v>0.2232603861677092</v>
+        <v>0.2594534139323059</v>
       </c>
       <c r="D11">
-        <v>0.324204153164743</v>
+        <v>0.353173797187992</v>
       </c>
       <c r="E11">
-        <v>0.2651168528626258</v>
+        <v>0.2177765554482676</v>
       </c>
       <c r="F11">
-        <v>1.060331126428352</v>
+        <v>0.6040612569962889</v>
       </c>
       <c r="G11">
-        <v>0.00080083891615499</v>
+        <v>0.2716524803413733</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02061425125595662</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2848157655207615</v>
+        <v>0.2496294006339426</v>
       </c>
       <c r="K11">
-        <v>1.765786574618915</v>
+        <v>0.179197370011126</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1910574326271899</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.816283417363991</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.246626421575513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.047470778636566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.735685787245785</v>
+        <v>1.713996761967195</v>
       </c>
       <c r="C12">
-        <v>0.228449026754376</v>
+        <v>0.2580183254535484</v>
       </c>
       <c r="D12">
-        <v>0.3323655762082325</v>
+        <v>0.3053162207110205</v>
       </c>
       <c r="E12">
-        <v>0.2716052497869867</v>
+        <v>0.159546515446749</v>
       </c>
       <c r="F12">
-        <v>1.073688106327936</v>
+        <v>0.5361351611145011</v>
       </c>
       <c r="G12">
-        <v>0.0007996839012894446</v>
+        <v>0.2397627036747423</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05903003277289542</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2915867927813167</v>
+        <v>0.2319782330809375</v>
       </c>
       <c r="K12">
-        <v>1.811290773193946</v>
+        <v>0.1632041321355082</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1231789545747191</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.852060016164103</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.263691097366177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.942950925383073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.726208665905148</v>
+        <v>1.708458408408546</v>
       </c>
       <c r="C13">
-        <v>0.2273311101604207</v>
+        <v>0.2497364325255802</v>
       </c>
       <c r="D13">
-        <v>0.3306060630330592</v>
+        <v>0.2546406186688586</v>
       </c>
       <c r="E13">
-        <v>0.2702056134464215</v>
+        <v>0.1095270445464962</v>
       </c>
       <c r="F13">
-        <v>1.070793458242633</v>
+        <v>0.4705666688339818</v>
       </c>
       <c r="G13">
-        <v>0.0007999322302968794</v>
+        <v>0.2104306206642548</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.114392240465051</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2901253487788438</v>
+        <v>0.2171090265052982</v>
       </c>
       <c r="K13">
-        <v>1.801484518643349</v>
+        <v>0.1516671270183405</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07424341486139951</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.834242780374808</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.259970363789876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8495889492405126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.695327486821498</v>
+        <v>1.681781397094824</v>
       </c>
       <c r="C14">
-        <v>0.2236870592973474</v>
+        <v>0.240880593029587</v>
       </c>
       <c r="D14">
-        <v>0.324874792139056</v>
+        <v>0.2186278175978487</v>
       </c>
       <c r="E14">
-        <v>0.2656496539597342</v>
+        <v>0.07985449926668764</v>
       </c>
       <c r="F14">
-        <v>1.061421956027843</v>
+        <v>0.4265769592559465</v>
       </c>
       <c r="G14">
-        <v>0.0008007437003941866</v>
+        <v>0.1914298023103242</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1634386732350919</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2853713989386648</v>
+        <v>0.2081105335198359</v>
       </c>
       <c r="K14">
-        <v>1.769527512369649</v>
+        <v>0.1457901775171848</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05144413144133608</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.797535285276012</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.248009929494771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7903937741949818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.676431252613469</v>
+        <v>1.6645011331982</v>
       </c>
       <c r="C15">
-        <v>0.221456251727119</v>
+        <v>0.2372882004222987</v>
       </c>
       <c r="D15">
-        <v>0.3213694255584159</v>
+        <v>0.2089712795740013</v>
       </c>
       <c r="E15">
-        <v>0.2628654748832915</v>
+        <v>0.07315103930459443</v>
       </c>
       <c r="F15">
-        <v>1.055733754325018</v>
+        <v>0.4159910306251149</v>
       </c>
       <c r="G15">
-        <v>0.0008012420013770453</v>
+        <v>0.187159974598444</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1758252972759209</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2824686581373044</v>
+        <v>0.2064376327343851</v>
       </c>
       <c r="K15">
-        <v>1.749970422949673</v>
+        <v>0.1451494394433617</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04735801192897249</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.777186399144426</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.240815878641456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7778013978876857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.568424428741878</v>
+        <v>1.561610499069758</v>
       </c>
       <c r="C16">
-        <v>0.2086903246659944</v>
+        <v>0.2237313337240607</v>
       </c>
       <c r="D16">
-        <v>0.3013577862809456</v>
+        <v>0.1988365985523046</v>
       </c>
       <c r="E16">
-        <v>0.2470057469530644</v>
+        <v>0.07129063275923286</v>
       </c>
       <c r="F16">
-        <v>1.023912283663194</v>
+        <v>0.4154916412939826</v>
       </c>
       <c r="G16">
-        <v>0.0008041171942764783</v>
+        <v>0.189825109359731</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1625167451264389</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2659696220953265</v>
+        <v>0.2111836925093584</v>
       </c>
       <c r="K16">
-        <v>1.638147873141946</v>
+        <v>0.1521070516331537</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04715425144771679</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.668681504809001</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.201557047067297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7931963886989593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.502397297187315</v>
+        <v>1.497075067579061</v>
       </c>
       <c r="C17">
-        <v>0.2008730784172457</v>
+        <v>0.2180277100980703</v>
       </c>
       <c r="D17">
-        <v>0.2891455431817036</v>
+        <v>0.2096749155948459</v>
       </c>
       <c r="E17">
-        <v>0.2373570937956231</v>
+        <v>0.08446683014542344</v>
       </c>
       <c r="F17">
-        <v>1.005057854104948</v>
+        <v>0.4381507643367328</v>
       </c>
       <c r="G17">
-        <v>0.0008058990145938448</v>
+        <v>0.2019116646656016</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1244632124292195</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2559630295276492</v>
+        <v>0.2196273315909991</v>
       </c>
       <c r="K17">
-        <v>1.569754572005166</v>
+        <v>0.1606038945702846</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05706884897340103</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.605134174720348</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.179168494259045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8363901578483706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.4644983399061</v>
+        <v>1.458111900003814</v>
       </c>
       <c r="C18">
-        <v>0.1963813604370301</v>
+        <v>0.218410170224729</v>
       </c>
       <c r="D18">
-        <v>0.282143551553645</v>
+        <v>0.2414508441662093</v>
       </c>
       <c r="E18">
-        <v>0.2318354939229579</v>
+        <v>0.1171766520196513</v>
       </c>
       <c r="F18">
-        <v>0.9944488434966274</v>
+        <v>0.4852024325499187</v>
       </c>
       <c r="G18">
-        <v>0.0008069306589867828</v>
+        <v>0.2243017041113902</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07161092774465061</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2502475463322895</v>
+        <v>0.2325319974806277</v>
       </c>
       <c r="K18">
-        <v>1.530485424574465</v>
+        <v>0.1719363098143791</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08677840765951572</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.572845547380894</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.166891126320166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9108306800071375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.451679173611979</v>
+        <v>1.442571979809514</v>
       </c>
       <c r="C19">
-        <v>0.1948612620948182</v>
+        <v>0.2236939575151098</v>
       </c>
       <c r="D19">
-        <v>0.2797764715266453</v>
+        <v>0.2905570971674649</v>
       </c>
       <c r="E19">
-        <v>0.229970641858948</v>
+        <v>0.1711064310600108</v>
       </c>
       <c r="F19">
-        <v>0.9908963892326454</v>
+        <v>0.5517872797850742</v>
       </c>
       <c r="G19">
-        <v>0.0008072811387030273</v>
+        <v>0.2548830949783749</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02661806069198747</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2483190538675188</v>
+        <v>0.2487129112957547</v>
       </c>
       <c r="K19">
-        <v>1.517200757794427</v>
+        <v>0.1856825043200807</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.145350841428332</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.567985782881379</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.162835124188518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.009553126718785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.509417760339687</v>
+        <v>1.493086479136991</v>
       </c>
       <c r="C20">
-        <v>0.201704751262568</v>
+        <v>0.2426440963576511</v>
       </c>
       <c r="D20">
-        <v>0.2904432311357255</v>
+        <v>0.3868596600635783</v>
       </c>
       <c r="E20">
-        <v>0.2383812701808523</v>
+        <v>0.2820235699434548</v>
       </c>
       <c r="F20">
-        <v>1.00704034950418</v>
+        <v>0.6707342750073266</v>
       </c>
       <c r="G20">
-        <v>0.0008057086381566643</v>
+        <v>0.3071851808054973</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001647929546429783</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2570240547166804</v>
+        <v>0.2733730930291287</v>
       </c>
       <c r="K20">
-        <v>1.577027875307351</v>
+        <v>0.2053820741090178</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2808117616604733</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.640258123900878</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.181489191522701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.17223095554688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.704393957139757</v>
+        <v>1.677158114039372</v>
       </c>
       <c r="C21">
-        <v>0.2247571347894564</v>
+        <v>0.2717259886134684</v>
       </c>
       <c r="D21">
-        <v>0.3265571125574382</v>
+        <v>0.4389724521879828</v>
       </c>
       <c r="E21">
-        <v>0.2669864900044203</v>
+        <v>0.3231131573018331</v>
       </c>
       <c r="F21">
-        <v>1.064163675808814</v>
+        <v>0.7146301325367261</v>
       </c>
       <c r="G21">
-        <v>0.0008005050920359517</v>
+        <v>0.321499458843526</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003203243683670198</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2867658205809107</v>
+        <v>0.2743570141404561</v>
       </c>
       <c r="K21">
-        <v>1.778910371433966</v>
+        <v>0.2004482617699885</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3238671299381508</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.841925981087371</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.251495339520233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.204994535346046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.832670440111826</v>
+        <v>1.797777382951011</v>
       </c>
       <c r="C22">
-        <v>0.2398785837745834</v>
+        <v>0.2902279273377815</v>
       </c>
       <c r="D22">
-        <v>0.350388521298072</v>
+        <v>0.4688457934485939</v>
       </c>
       <c r="E22">
-        <v>0.2859671133197494</v>
+        <v>0.3444686553859029</v>
       </c>
       <c r="F22">
-        <v>1.103803438226251</v>
+        <v>0.7386224458355954</v>
       </c>
       <c r="G22">
-        <v>0.0007971608086118083</v>
+        <v>0.3290345129330561</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004497243415392926</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3066090475400074</v>
+        <v>0.2741394327650681</v>
       </c>
       <c r="K22">
-        <v>1.91161659533995</v>
+        <v>0.1966004090559252</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3447430461811507</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.97321578535383</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.303095888890255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.220737783205465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.764121500650106</v>
+        <v>1.733386328883483</v>
       </c>
       <c r="C23">
-        <v>0.2318021591961639</v>
+        <v>0.2803512845446221</v>
       </c>
       <c r="D23">
-        <v>0.337646711000005</v>
+        <v>0.4528938010742252</v>
       </c>
       <c r="E23">
-        <v>0.2758088710872784</v>
+        <v>0.3330650934542163</v>
       </c>
       <c r="F23">
-        <v>1.082425345933999</v>
+        <v>0.7257332957419109</v>
       </c>
       <c r="G23">
-        <v>0.0007989407401217497</v>
+        <v>0.3249443123615094</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003781920433910679</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2959787951002397</v>
+        <v>0.2742163053034048</v>
       </c>
       <c r="K23">
-        <v>1.840711179061003</v>
+        <v>0.1986048251773589</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3335957088135473</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.90313030345925</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.274995066849868</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.212108242632297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.506243620843122</v>
+        <v>1.489781363194965</v>
       </c>
       <c r="C24">
-        <v>0.2013287442761111</v>
+        <v>0.242978297036359</v>
       </c>
       <c r="D24">
-        <v>0.2898564876033163</v>
+        <v>0.3926409218122444</v>
       </c>
       <c r="E24">
-        <v>0.2379181608728089</v>
+        <v>0.2899899440852636</v>
       </c>
       <c r="F24">
-        <v>1.006143347158371</v>
+        <v>0.6787054776471351</v>
       </c>
       <c r="G24">
-        <v>0.0008057946847481943</v>
+        <v>0.3109125584024852</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001596746363878632</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2565442491363115</v>
+        <v>0.2753488632546279</v>
       </c>
       <c r="K24">
-        <v>1.573739457433163</v>
+        <v>0.2072503438506139</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2914836528230182</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.637941686362637</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.180438159225332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.18426836527432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.230990516493733</v>
+        <v>1.227294683950277</v>
       </c>
       <c r="C25">
-        <v>0.1686251388223923</v>
+        <v>0.2026973306519437</v>
       </c>
       <c r="D25">
-        <v>0.2391386912838271</v>
+        <v>0.3279135104448159</v>
       </c>
       <c r="E25">
-        <v>0.1981014852631944</v>
+        <v>0.2436977234134616</v>
       </c>
       <c r="F25">
-        <v>0.9327628632009066</v>
+        <v>0.6314462489670305</v>
       </c>
       <c r="G25">
-        <v>0.0008134493099666464</v>
+        <v>0.2986027589794205</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002461652518008783</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2155144661614656</v>
+        <v>0.2782402629517762</v>
       </c>
       <c r="K25">
-        <v>1.288325329977624</v>
+        <v>0.218657042993943</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2462050702603307</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.352120232109911</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.101129279309134</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.163698715618281</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.03395963603171</v>
+        <v>1.027888683818418</v>
       </c>
       <c r="C2">
-        <v>0.1730234393756405</v>
+        <v>0.1846236283943909</v>
       </c>
       <c r="D2">
-        <v>0.2803945604527485</v>
+        <v>0.2858079561729028</v>
       </c>
       <c r="E2">
-        <v>0.2096843506623429</v>
+        <v>0.2114614604788159</v>
       </c>
       <c r="F2">
-        <v>0.599292176610156</v>
+        <v>0.5802078062510816</v>
       </c>
       <c r="G2">
-        <v>0.29169222705778</v>
+        <v>0.2599417269238415</v>
       </c>
       <c r="H2">
-        <v>9.726455097336384E-06</v>
+        <v>2.498532241990148E-06</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.281685154968585</v>
+        <v>0.3030628534139055</v>
       </c>
       <c r="K2">
-        <v>0.2286859050796828</v>
+        <v>0.2121393668554603</v>
       </c>
       <c r="L2">
-        <v>0.212907264588182</v>
+        <v>0.122742556059702</v>
       </c>
       <c r="M2">
-        <v>1.141538701583045</v>
+        <v>0.04682989965863271</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2129121033129664</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.156553385254824</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.1558500692975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.104183706410709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9027541372876442</v>
+        <v>0.9006619606307424</v>
       </c>
       <c r="C3">
-        <v>0.1528847258760635</v>
+        <v>0.1594536226062075</v>
       </c>
       <c r="D3">
-        <v>0.2482369690883104</v>
+        <v>0.2527177797061313</v>
       </c>
       <c r="E3">
-        <v>0.1866425012709385</v>
+        <v>0.1883510312565377</v>
       </c>
       <c r="F3">
-        <v>0.5789906427453033</v>
+        <v>0.5624206094165629</v>
       </c>
       <c r="G3">
-        <v>0.2882223002016318</v>
+        <v>0.2588804757657428</v>
       </c>
       <c r="H3">
-        <v>0.000271360601361792</v>
+        <v>0.0002055127662954348</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2847844944453826</v>
+        <v>0.3044421311871304</v>
       </c>
       <c r="K3">
-        <v>0.2364243745925805</v>
+        <v>0.2200706283591032</v>
       </c>
       <c r="L3">
-        <v>0.1903267282072889</v>
+        <v>0.1284376404222094</v>
       </c>
       <c r="M3">
-        <v>0.9985960212973453</v>
+        <v>0.04828584473907238</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1907305567904061</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.009913769148795</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.154689755339973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.107440484925888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.822063862390479</v>
+        <v>0.8223076551200563</v>
       </c>
       <c r="C4">
-        <v>0.1404999658464874</v>
+        <v>0.1440799236987971</v>
       </c>
       <c r="D4">
-        <v>0.2285027761414113</v>
+        <v>0.2324366183012785</v>
       </c>
       <c r="E4">
-        <v>0.1724885878189752</v>
+        <v>0.1741593788319236</v>
       </c>
       <c r="F4">
-        <v>0.5672106536662369</v>
+        <v>0.5520616378856644</v>
       </c>
       <c r="G4">
-        <v>0.2866497013135358</v>
+        <v>0.2587726225549432</v>
       </c>
       <c r="H4">
-        <v>0.0006239665499589986</v>
+        <v>0.0005046198849547601</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2870471023927408</v>
+        <v>0.3054791200686608</v>
       </c>
       <c r="K4">
-        <v>0.2416167416537256</v>
+        <v>0.2252892239869659</v>
       </c>
       <c r="L4">
-        <v>0.1764429510871466</v>
+        <v>0.1321921520285958</v>
       </c>
       <c r="M4">
-        <v>0.9106725103635824</v>
+        <v>0.04969238912323082</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1770855129892155</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9197715540268234</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.155905744391688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.111020434752817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7891442978337579</v>
+        <v>0.7903144104642479</v>
       </c>
       <c r="C5">
-        <v>0.1354475037471019</v>
+        <v>0.1378346247859099</v>
       </c>
       <c r="D5">
-        <v>0.220462040999422</v>
+        <v>0.2241795764041683</v>
       </c>
       <c r="E5">
-        <v>0.166717788333699</v>
+        <v>0.168374449267251</v>
       </c>
       <c r="F5">
-        <v>0.562575564914809</v>
+        <v>0.5479755633170384</v>
       </c>
       <c r="G5">
-        <v>0.286143391868066</v>
+        <v>0.258859267974259</v>
       </c>
       <c r="H5">
-        <v>0.0008136072837450214</v>
+        <v>0.0006682943566163058</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.288057047391483</v>
+        <v>0.3059483061092081</v>
       </c>
       <c r="K5">
-        <v>0.2438401425620054</v>
+        <v>0.2275008578469802</v>
       </c>
       <c r="L5">
-        <v>0.1707787195231987</v>
+        <v>0.1337869756736456</v>
       </c>
       <c r="M5">
-        <v>0.8747983981683092</v>
+        <v>0.05039260886628583</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1715171862874172</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8830072603113592</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.156868702069247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.112861677673394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7836756162435563</v>
+        <v>0.784998034019651</v>
       </c>
       <c r="C6">
-        <v>0.1346081912390957</v>
+        <v>0.1367987625642968</v>
       </c>
       <c r="D6">
-        <v>0.2191269052756297</v>
+        <v>0.2228089249504848</v>
       </c>
       <c r="E6">
-        <v>0.1657593319093564</v>
+        <v>0.1674137262513788</v>
       </c>
       <c r="F6">
-        <v>0.5618157004087792</v>
+        <v>0.5473050695108057</v>
       </c>
       <c r="G6">
-        <v>0.2860672808035218</v>
+        <v>0.2588813676323554</v>
       </c>
       <c r="H6">
-        <v>0.000847805796321488</v>
+        <v>0.0006979363550142503</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2882299861338282</v>
+        <v>0.3060289946334649</v>
       </c>
       <c r="K6">
-        <v>0.2442157302225425</v>
+        <v>0.2278731556559901</v>
       </c>
       <c r="L6">
-        <v>0.1698377400151827</v>
+        <v>0.1340557115538701</v>
       </c>
       <c r="M6">
-        <v>0.8688386894344262</v>
+        <v>0.05051650015728715</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1705920537043681</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8769006115075797</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.157056333202661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.113190081240944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8216200563794871</v>
+        <v>0.8219864120135014</v>
       </c>
       <c r="C7">
-        <v>0.1404318499808852</v>
+        <v>0.1437926024776317</v>
       </c>
       <c r="D7">
-        <v>0.2283943335216776</v>
+        <v>0.2325736058619867</v>
       </c>
       <c r="E7">
-        <v>0.1724107746440779</v>
+        <v>0.1741333891440107</v>
       </c>
       <c r="F7">
-        <v>0.5671474827339011</v>
+        <v>0.551171880300366</v>
       </c>
       <c r="G7">
-        <v>0.2866423357710843</v>
+        <v>0.2607590720670743</v>
       </c>
       <c r="H7">
-        <v>0.0006263410717011197</v>
+        <v>0.000508055604652391</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2870603701521048</v>
+        <v>0.302371739301897</v>
       </c>
       <c r="K7">
-        <v>0.2416462964851522</v>
+        <v>0.225040166421504</v>
       </c>
       <c r="L7">
-        <v>0.1763665896420008</v>
+        <v>0.1320563839081057</v>
       </c>
       <c r="M7">
-        <v>0.9101888867446917</v>
+        <v>0.04964611886942194</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1769612200758601</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9190690913870867</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.155916861190548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.10902840271072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9887436936163567</v>
+        <v>0.9844376253823839</v>
       </c>
       <c r="C8">
-        <v>0.1660832376463617</v>
+        <v>0.1752392235505909</v>
       </c>
       <c r="D8">
-        <v>0.2693034179464178</v>
+        <v>0.2752246895112762</v>
       </c>
       <c r="E8">
-        <v>0.2017399099674506</v>
+        <v>0.203668689297082</v>
       </c>
       <c r="F8">
-        <v>0.5921457139843511</v>
+        <v>0.5711999014545626</v>
       </c>
       <c r="G8">
-        <v>0.2903764571662677</v>
+        <v>0.2660995593681292</v>
       </c>
       <c r="H8">
-        <v>5.867909674028837E-05</v>
+        <v>3.61510461031056E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.282677631990218</v>
+        <v>0.2934601751932675</v>
       </c>
       <c r="K8">
-        <v>0.231260533991561</v>
+        <v>0.2139051281733231</v>
       </c>
       <c r="L8">
-        <v>0.2051244743680343</v>
+        <v>0.1242044511628659</v>
       </c>
       <c r="M8">
-        <v>1.092281119300139</v>
+        <v>0.04699070461319632</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2051060983970459</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.10531802409227</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.15503901984421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.098360587774337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.315704676093105</v>
+        <v>1.300922751674108</v>
       </c>
       <c r="C9">
-        <v>0.2162657177438092</v>
+        <v>0.2383205741269734</v>
       </c>
       <c r="D9">
-        <v>0.3496897138118271</v>
+        <v>0.358320144552124</v>
       </c>
       <c r="E9">
-        <v>0.2592753677552437</v>
+        <v>0.2614464221567587</v>
       </c>
       <c r="F9">
-        <v>0.6469331349113432</v>
+        <v>0.6182576338095274</v>
       </c>
       <c r="G9">
-        <v>0.3023969602089096</v>
+        <v>0.2738475546670927</v>
       </c>
       <c r="H9">
-        <v>0.0005763709779662562</v>
+        <v>0.0005856172005618276</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2770541063503629</v>
+        <v>0.2884936390674682</v>
       </c>
       <c r="K9">
-        <v>0.2145511030218294</v>
+        <v>0.1959743668400566</v>
       </c>
       <c r="L9">
-        <v>0.2614454493660645</v>
+        <v>0.1114278416093182</v>
       </c>
       <c r="M9">
-        <v>1.448399503910593</v>
+        <v>0.04613366168560162</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2603445774702635</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.470692590724497</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.169439915079138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.098000916863498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.556237361031094</v>
+        <v>1.534184642386208</v>
       </c>
       <c r="C10">
-        <v>0.2520923196616707</v>
+        <v>0.2822207759181481</v>
       </c>
       <c r="D10">
-        <v>0.4005793183421247</v>
+        <v>0.4125600148846331</v>
       </c>
       <c r="E10">
-        <v>0.290747542284457</v>
+        <v>0.2933456370524681</v>
       </c>
       <c r="F10">
-        <v>0.6802184689794188</v>
+        <v>0.641252583392955</v>
       </c>
       <c r="G10">
-        <v>0.3094971568717355</v>
+        <v>0.2902172629160518</v>
       </c>
       <c r="H10">
-        <v>0.002165194113507685</v>
+        <v>0.002081384387248697</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2723998754937043</v>
+        <v>0.2677659517684177</v>
       </c>
       <c r="K10">
-        <v>0.2024916564154324</v>
+        <v>0.1815470622116102</v>
       </c>
       <c r="L10">
-        <v>0.2885322740402501</v>
+        <v>0.1021603490592273</v>
       </c>
       <c r="M10">
-        <v>1.708642531612043</v>
+        <v>0.04684390705150498</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2863873526887915</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.73616728489668</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.175215632859178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.081739985318833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.669208909648404</v>
+        <v>1.648492028702037</v>
       </c>
       <c r="C11">
-        <v>0.2594534139323059</v>
+        <v>0.2856967543040412</v>
       </c>
       <c r="D11">
-        <v>0.353173797187992</v>
+        <v>0.3667970844251727</v>
       </c>
       <c r="E11">
-        <v>0.2177765554482676</v>
+        <v>0.2203274585853734</v>
       </c>
       <c r="F11">
-        <v>0.6040612569962889</v>
+        <v>0.5603928947798664</v>
       </c>
       <c r="G11">
-        <v>0.2716524803413733</v>
+        <v>0.2797434970010428</v>
       </c>
       <c r="H11">
-        <v>0.02061425125595662</v>
+        <v>0.02048651461160489</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2496294006339426</v>
+        <v>0.2226456716898468</v>
       </c>
       <c r="K11">
-        <v>0.179197370011126</v>
+        <v>0.1593117996498261</v>
       </c>
       <c r="L11">
-        <v>0.1910574326271899</v>
+        <v>0.09301895789965009</v>
       </c>
       <c r="M11">
-        <v>1.816283417363991</v>
+        <v>0.04054848559890267</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1887850614984998</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.839910018300344</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.047470778636566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9442262600348101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.713996761967195</v>
+        <v>1.695702147794691</v>
       </c>
       <c r="C12">
-        <v>0.2580183254535484</v>
+        <v>0.2800152567501186</v>
       </c>
       <c r="D12">
-        <v>0.3053162207110205</v>
+        <v>0.3185362710416513</v>
       </c>
       <c r="E12">
-        <v>0.159546515446749</v>
+        <v>0.1617081753513041</v>
       </c>
       <c r="F12">
-        <v>0.5361351611145011</v>
+        <v>0.4941411002016096</v>
       </c>
       <c r="G12">
-        <v>0.2397627036747423</v>
+        <v>0.2596379246700025</v>
       </c>
       <c r="H12">
-        <v>0.05903003277289542</v>
+        <v>0.05889921818693011</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2319782330809375</v>
+        <v>0.202741712708491</v>
       </c>
       <c r="K12">
-        <v>0.1632041321355082</v>
+        <v>0.1457552325463158</v>
       </c>
       <c r="L12">
-        <v>0.1231789545747191</v>
+        <v>0.08824691092278858</v>
       </c>
       <c r="M12">
-        <v>1.852060016164103</v>
+        <v>0.03558497826987406</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1212452884682307</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.871903465873658</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.942950925383073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8443528282778772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.708458408408546</v>
+        <v>1.693213144282197</v>
       </c>
       <c r="C13">
-        <v>0.2497364325255802</v>
+        <v>0.26754315914161</v>
       </c>
       <c r="D13">
-        <v>0.2546406186688586</v>
+        <v>0.2655706375062294</v>
       </c>
       <c r="E13">
-        <v>0.1095270445464962</v>
+        <v>0.1110390427322656</v>
       </c>
       <c r="F13">
-        <v>0.4705666688339818</v>
+        <v>0.4359488482309928</v>
       </c>
       <c r="G13">
-        <v>0.2104306206642548</v>
+        <v>0.2269737406644197</v>
       </c>
       <c r="H13">
-        <v>0.114392240465051</v>
+        <v>0.11428921964675</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2171090265052982</v>
+        <v>0.1975973313937942</v>
       </c>
       <c r="K13">
-        <v>0.1516671270183405</v>
+        <v>0.1377973408687456</v>
       </c>
       <c r="L13">
-        <v>0.07424341486139951</v>
+        <v>0.08591781226647299</v>
       </c>
       <c r="M13">
-        <v>1.834242780374808</v>
+        <v>0.0316276463263403</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07293452302794279</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.850776395918587</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8495889492405126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7684699666218933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.681781397094824</v>
+        <v>1.668944388853618</v>
       </c>
       <c r="C14">
-        <v>0.240880593029587</v>
+        <v>0.2557740681918688</v>
       </c>
       <c r="D14">
-        <v>0.2186278175978487</v>
+        <v>0.2273330852110007</v>
       </c>
       <c r="E14">
-        <v>0.07985449926668764</v>
+        <v>0.0808826248588943</v>
       </c>
       <c r="F14">
-        <v>0.4265769592559465</v>
+        <v>0.3989546766801837</v>
       </c>
       <c r="G14">
-        <v>0.1914298023103242</v>
+        <v>0.200326774170918</v>
       </c>
       <c r="H14">
-        <v>0.1634386732350919</v>
+        <v>0.163363717874347</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2081105335198359</v>
+        <v>0.1987583676573799</v>
       </c>
       <c r="K14">
-        <v>0.1457901775171848</v>
+        <v>0.13460813952618</v>
       </c>
       <c r="L14">
-        <v>0.05144413144133608</v>
+        <v>0.08518742755501574</v>
       </c>
       <c r="M14">
-        <v>1.797535285276012</v>
+        <v>0.0294140173513</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05060718528519459</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.811946505088713</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7903937741949818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7255592131392632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.6645011331982</v>
+        <v>1.652383828253221</v>
       </c>
       <c r="C15">
-        <v>0.2372882004222987</v>
+        <v>0.2514462577966299</v>
       </c>
       <c r="D15">
-        <v>0.2089712795740013</v>
+        <v>0.2168621791015539</v>
       </c>
       <c r="E15">
-        <v>0.07315103930459443</v>
+        <v>0.07404712155380011</v>
       </c>
       <c r="F15">
-        <v>0.4159910306251149</v>
+        <v>0.39088610846715</v>
       </c>
       <c r="G15">
-        <v>0.187159974598444</v>
+        <v>0.1921505667201373</v>
       </c>
       <c r="H15">
-        <v>0.1758252972759209</v>
+        <v>0.1757622156388976</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2064376327343851</v>
+        <v>0.2011133106544953</v>
       </c>
       <c r="K15">
-        <v>0.1451494394433617</v>
+        <v>0.1347282408383252</v>
       </c>
       <c r="L15">
-        <v>0.04735801192897249</v>
+        <v>0.08534609761906653</v>
       </c>
       <c r="M15">
-        <v>1.777186399144426</v>
+        <v>0.02905919974673221</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04665926832603162</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.791161775487353</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7778013978876857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7187331214326633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.561610499069758</v>
+        <v>1.550893245695249</v>
       </c>
       <c r="C16">
-        <v>0.2237313337240607</v>
+        <v>0.2373188108894055</v>
       </c>
       <c r="D16">
-        <v>0.1988365985523046</v>
+        <v>0.2042736439733233</v>
       </c>
       <c r="E16">
-        <v>0.07129063275923286</v>
+        <v>0.07199851190691575</v>
       </c>
       <c r="F16">
-        <v>0.4154916412939826</v>
+        <v>0.3978046576784067</v>
       </c>
       <c r="G16">
-        <v>0.189825109359731</v>
+        <v>0.1778459105747743</v>
       </c>
       <c r="H16">
-        <v>0.1625167451264389</v>
+        <v>0.1624982313583132</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2111836925093584</v>
+        <v>0.2220868195300199</v>
       </c>
       <c r="K16">
-        <v>0.1521070516331537</v>
+        <v>0.1428638816992303</v>
       </c>
       <c r="L16">
-        <v>0.04715425144771679</v>
+        <v>0.08862845944514053</v>
       </c>
       <c r="M16">
-        <v>1.668681504809001</v>
+        <v>0.03052695391677762</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04676912542561773</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.683150438203256</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7931963886989593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7505813678121598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.497075067579061</v>
+        <v>1.486347198898812</v>
       </c>
       <c r="C17">
-        <v>0.2180277100980703</v>
+        <v>0.2323831660702353</v>
       </c>
       <c r="D17">
-        <v>0.2096749155948459</v>
+        <v>0.2145095530708545</v>
       </c>
       <c r="E17">
-        <v>0.08446683014542344</v>
+        <v>0.0852371537307377</v>
       </c>
       <c r="F17">
-        <v>0.4381507643367328</v>
+        <v>0.4221911369167728</v>
       </c>
       <c r="G17">
-        <v>0.2019116646656016</v>
+        <v>0.1823306919192618</v>
       </c>
       <c r="H17">
-        <v>0.1244632124292195</v>
+        <v>0.1244591758093776</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2196273315909991</v>
+        <v>0.2380676969805435</v>
       </c>
       <c r="K17">
-        <v>0.1606038945702846</v>
+        <v>0.1509399007593277</v>
       </c>
       <c r="L17">
-        <v>0.05706884897340103</v>
+        <v>0.09188571798117717</v>
       </c>
       <c r="M17">
-        <v>1.605134174720348</v>
+        <v>0.03268141442950778</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05674809551279836</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.620746971850394</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8363901578483706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7972055291979387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.458111900003814</v>
+        <v>1.445942011126846</v>
       </c>
       <c r="C18">
-        <v>0.218410170224729</v>
+        <v>0.2352410984383937</v>
       </c>
       <c r="D18">
-        <v>0.2414508441662093</v>
+        <v>0.2467623201672637</v>
       </c>
       <c r="E18">
-        <v>0.1171766520196513</v>
+        <v>0.1181814189009742</v>
       </c>
       <c r="F18">
-        <v>0.4852024325499187</v>
+        <v>0.4675911123275682</v>
       </c>
       <c r="G18">
-        <v>0.2243017041113902</v>
+        <v>0.1997142386063828</v>
       </c>
       <c r="H18">
-        <v>0.07161092774465061</v>
+        <v>0.07161070593016916</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2325319974806277</v>
+        <v>0.2536702014746766</v>
       </c>
       <c r="K18">
-        <v>0.1719363098143791</v>
+        <v>0.1606742593050168</v>
       </c>
       <c r="L18">
-        <v>0.08677840765951572</v>
+        <v>0.0957926251647514</v>
       </c>
       <c r="M18">
-        <v>1.572845547380894</v>
+        <v>0.03583993189425172</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08634222923836887</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.590745273980019</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9108306800071375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8672781642343779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.442571979809514</v>
+        <v>1.427839148187445</v>
       </c>
       <c r="C19">
-        <v>0.2236939575151098</v>
+        <v>0.2444321828901224</v>
       </c>
       <c r="D19">
-        <v>0.2905570971674649</v>
+        <v>0.2971154186913907</v>
       </c>
       <c r="E19">
-        <v>0.1711064310600108</v>
+        <v>0.1724950757603025</v>
       </c>
       <c r="F19">
-        <v>0.5517872797850742</v>
+        <v>0.5301006924427725</v>
       </c>
       <c r="G19">
-        <v>0.2548830949783749</v>
+        <v>0.2261503773693008</v>
       </c>
       <c r="H19">
-        <v>0.02661806069198747</v>
+        <v>0.02661550331499285</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2487129112957547</v>
+        <v>0.2695101283970232</v>
       </c>
       <c r="K19">
-        <v>0.1856825043200807</v>
+        <v>0.1718720086567789</v>
       </c>
       <c r="L19">
-        <v>0.145350841428332</v>
+        <v>0.100190828241276</v>
       </c>
       <c r="M19">
-        <v>1.567985782881379</v>
+        <v>0.03991105227262715</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1446189340326285</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.589081194332067</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.009553126718785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9560809627730862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.493086479136991</v>
+        <v>1.472592776291009</v>
       </c>
       <c r="C20">
-        <v>0.2426440963576511</v>
+        <v>0.2713788818815885</v>
       </c>
       <c r="D20">
-        <v>0.3868596600635783</v>
+        <v>0.3970220222381329</v>
       </c>
       <c r="E20">
-        <v>0.2820235699434548</v>
+        <v>0.2843109460024991</v>
       </c>
       <c r="F20">
-        <v>0.6707342750073266</v>
+        <v>0.6374711254602232</v>
       </c>
       <c r="G20">
-        <v>0.3071851808054973</v>
+        <v>0.2781413640795094</v>
       </c>
       <c r="H20">
-        <v>0.001647929546429783</v>
+        <v>0.001603683329576278</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2733730930291287</v>
+        <v>0.2827766438421762</v>
       </c>
       <c r="K20">
-        <v>0.2053820741090178</v>
+        <v>0.1859970885918454</v>
       </c>
       <c r="L20">
-        <v>0.2808117616604733</v>
+        <v>0.1047689640037834</v>
       </c>
       <c r="M20">
-        <v>1.640258123900878</v>
+        <v>0.04682420742464899</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2791156356008457</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.667156960189601</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.17223095554688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.09164513995637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.677158114039372</v>
+        <v>1.652456135159269</v>
       </c>
       <c r="C21">
-        <v>0.2717259886134684</v>
+        <v>0.3036023882372945</v>
       </c>
       <c r="D21">
-        <v>0.4389724521879828</v>
+        <v>0.4571488675083799</v>
       </c>
       <c r="E21">
-        <v>0.3231131573018331</v>
+        <v>0.3269306288716578</v>
       </c>
       <c r="F21">
-        <v>0.7146301325367261</v>
+        <v>0.6563208985602813</v>
       </c>
       <c r="G21">
-        <v>0.321499458843526</v>
+        <v>0.3405028998875821</v>
       </c>
       <c r="H21">
-        <v>0.003203243683670198</v>
+        <v>0.002994293746205745</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2743570141404561</v>
+        <v>0.2265292971283657</v>
       </c>
       <c r="K21">
-        <v>0.2004482617699885</v>
+        <v>0.1736583859118674</v>
       </c>
       <c r="L21">
-        <v>0.3238671299381508</v>
+        <v>0.09755444200196273</v>
       </c>
       <c r="M21">
-        <v>1.841925981087371</v>
+        <v>0.04729089152187349</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3203158111376894</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.86948244333729</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.204994535346046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.067180388953958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.797777382951011</v>
+        <v>1.770648678720136</v>
       </c>
       <c r="C22">
-        <v>0.2902279273377815</v>
+        <v>0.3235040416925301</v>
       </c>
       <c r="D22">
-        <v>0.4688457934485939</v>
+        <v>0.492721134266759</v>
       </c>
       <c r="E22">
-        <v>0.3444686553859029</v>
+        <v>0.3493800224821442</v>
       </c>
       <c r="F22">
-        <v>0.7386224458355954</v>
+        <v>0.6628480972951536</v>
       </c>
       <c r="G22">
-        <v>0.3290345129330561</v>
+        <v>0.3868231991907578</v>
       </c>
       <c r="H22">
-        <v>0.004497243415392926</v>
+        <v>0.004142635300661612</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2741394327650681</v>
+        <v>0.1966540049465806</v>
       </c>
       <c r="K22">
-        <v>0.1966004090559252</v>
+        <v>0.1648496461511098</v>
       </c>
       <c r="L22">
-        <v>0.3447430461811507</v>
+        <v>0.09287669366114049</v>
       </c>
       <c r="M22">
-        <v>1.97321578535383</v>
+        <v>0.04742794845079956</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3399310680905074</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.000585271365964</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.220737783205465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.043331917083293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.733386328883483</v>
+        <v>1.707238949836608</v>
       </c>
       <c r="C23">
-        <v>0.2803512845446221</v>
+        <v>0.3134641756527401</v>
       </c>
       <c r="D23">
-        <v>0.4528938010742252</v>
+        <v>0.472996888497903</v>
       </c>
       <c r="E23">
-        <v>0.3330650934542163</v>
+        <v>0.3372332131382905</v>
       </c>
       <c r="F23">
-        <v>0.7257332957419109</v>
+        <v>0.6614859110483238</v>
       </c>
       <c r="G23">
-        <v>0.3249443123615094</v>
+        <v>0.3553728596956631</v>
       </c>
       <c r="H23">
-        <v>0.003781920433910679</v>
+        <v>0.003514667310665742</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2742163053034048</v>
+        <v>0.2160137864988556</v>
       </c>
       <c r="K23">
-        <v>0.1986048251773589</v>
+        <v>0.1701401154227735</v>
       </c>
       <c r="L23">
-        <v>0.3335957088135473</v>
+        <v>0.09552795076335308</v>
       </c>
       <c r="M23">
-        <v>1.90313030345925</v>
+        <v>0.04760816383720368</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3295840444386329</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.931174288638658</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.212108242632297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.060920037244273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.489781363194965</v>
+        <v>1.469058831614177</v>
       </c>
       <c r="C24">
-        <v>0.242978297036359</v>
+        <v>0.272114484518994</v>
       </c>
       <c r="D24">
-        <v>0.3926409218122444</v>
+        <v>0.4029204997651448</v>
       </c>
       <c r="E24">
-        <v>0.2899899440852636</v>
+        <v>0.2923232645766092</v>
       </c>
       <c r="F24">
-        <v>0.6787054776471351</v>
+        <v>0.6450497641303343</v>
       </c>
       <c r="G24">
-        <v>0.3109125584024852</v>
+        <v>0.2811036715227502</v>
       </c>
       <c r="H24">
-        <v>0.001596746363878632</v>
+        <v>0.001551619232668999</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2753488632546279</v>
+        <v>0.2850487696536845</v>
       </c>
       <c r="K24">
-        <v>0.2072503438506139</v>
+        <v>0.1875591250257429</v>
       </c>
       <c r="L24">
-        <v>0.2914836528230182</v>
+        <v>0.1053963099266451</v>
       </c>
       <c r="M24">
-        <v>1.637941686362637</v>
+        <v>0.04736200438864735</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2897497593929899</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.665153781067005</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.18426836527432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.102711419503038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.227294683950277</v>
+        <v>1.21529282224725</v>
       </c>
       <c r="C25">
-        <v>0.2026973306519437</v>
+        <v>0.2214791431476755</v>
       </c>
       <c r="D25">
-        <v>0.3279135104448159</v>
+        <v>0.3354278574732774</v>
       </c>
       <c r="E25">
-        <v>0.2436977234134616</v>
+        <v>0.2457241564813373</v>
       </c>
       <c r="F25">
-        <v>0.6314462489670305</v>
+        <v>0.6061518775775028</v>
       </c>
       <c r="G25">
-        <v>0.2986027589794205</v>
+        <v>0.2683475310763939</v>
       </c>
       <c r="H25">
-        <v>0.0002461652518008783</v>
+        <v>0.0002658460393600848</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2782402629517762</v>
+        <v>0.2938428654563197</v>
       </c>
       <c r="K25">
-        <v>0.218657042993943</v>
+        <v>0.2008676071053674</v>
       </c>
       <c r="L25">
-        <v>0.2462050702603307</v>
+        <v>0.1148234227004092</v>
       </c>
       <c r="M25">
-        <v>1.352120232109911</v>
+        <v>0.04603180893628789</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2454738509783425</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.3721794911323</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.163698715618281</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.099377840483811</v>
       </c>
     </row>
   </sheetData>
